--- a/Output_Files/LaBSE_NoDup_Unique_Titles_2018.xlsx
+++ b/Output_Files/LaBSE_NoDup_Unique_Titles_2018.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,10 +468,150 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>§25A. American Opportunity and Lifetime Learning credits</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>(a) Allowance of credit
+In the case of an individual, there shall be allowed as a credit against the tax imposed by this chapter for the taxable year the amount equal to the sum of—
+(1) the American Opportunity Tax Credit, plus
+(2) the Lifetime Learning Credit.
+(b) American Opportunity Tax Credit
+(1) Per student credit
+In the case of any eligible student for whom an election is in effect under this section for any taxable year, the American Opportunity Tax Credit is an amount equal to the sum of—
+(A) 100 percent of so much of the qualified tuition and related expenses paid by the taxpayer during the taxable year (for education furnished to the eligible student during any academic period beginning in such taxable year) as does not exceed $2,000, plus
+(B) 25 percent of such expenses so paid as exceeds $2,000 but does not exceed $4,000.
+(2) Limitations applicable to American Opportunity Tax Credit
+(A) Credit allowed only for 4 taxable years
+An election to have this section apply with respect to any eligible student for purposes of the American Opportunity Tax Credit under subsection (a)(1) may not be made for any taxable year if such an election (by the taxpayer or any other individual) is in effect with respect to such student for any 4 prior taxable years.
+(B) Credit allowed for year only if individual is at least ½ time student for portion of year
+The American Opportunity Tax Credit under subsection (a)(1) shall not be allowed for a taxable year with respect to the qualified tuition and related expenses of an individual unless such individual is an eligible student for at least one academic period which begins during such year.
+(C) Credit allowed only for first 4 years of postsecondary education
+The American Opportunity Tax Credit under subsection (a)(1) shall not be allowed for a taxable year with respect to the qualified tuition and related expenses of an eligible student if the student has completed (before the beginning of such taxable year) the first 4 years of postsecondary education at an eligible educational institution.
+(D) Denial of credit if student convicted of a felony drug offense
+The American Opportunity Tax Credit under subsection (a)(1) shall not be allowed for qualified tuition and related expenses for the enrollment or attendance of a student for any academic period if such student has been convicted of a Federal or State felony offense consisting of the possession or distribution of a controlled substance before the end of the taxable year with or within which such period ends.
+(3) Eligible student
+For purposes of this subsection, the term "eligible student" means, with respect to any academic period, a student who—
+(A) meets the requirements of section 484(a)(1) of the Higher Education Act of 1965 (20 U.S.C. 1091(a)(1)), as in effect on the date of the enactment of this section, and
+(B) is carrying at least ½ the normal full-time work load for the course of study the student is pursuing.
+(4) Restrictions on taxpayers who improperly claimed American Opportunity Tax Credit in prior years
+(A) Taxpayers making prior fraudulent or reckless claims
+(i) In general
+No American Opportunity Tax Credit shall be allowed under this section for any taxable year in the disallowance period.
+(ii) Disallowance period
+For purposes of subparagraph (A), the disallowance period is—
+(I) the period of 10 taxable years after the most recent taxable year for which there was a final determination that the taxpayer's claim of the American Opportunity Tax Credit under this section was due to fraud, and
+(II) the period of 2 taxable years after the most recent taxable year for which there was a final determination that the taxpayer's claim of the American Opportunity Tax Credit under this section was due to reckless or intentional disregard of rules and regulations (but not due to fraud).
+(B) Taxpayers making improper prior claims
+In the case of a taxpayer who is denied the American Opportunity Tax Credit under this section for any taxable year as a result of the deficiency procedures under subchapter B of chapter 63, no American Opportunity Tax Credit shall be allowed under this section for any subsequent taxable year unless the taxpayer provides such information as the Secretary may require to demonstrate eligibility for such credit.
+(c) Lifetime Learning Credit
+(1) Per taxpayer credit
+The Lifetime Learning Credit for any taxpayer for any taxable year is an amount equal to 20 percent of so much of the qualified tuition and related expenses paid by the taxpayer during the taxable year (for education furnished during any academic period beginning in such taxable year) as does not exceed $10,000.
+(2) Special rules for determining expenses
+(A) Coordination with American Opportunity Tax Credit
+The qualified tuition and related expenses with respect to an individual who is an eligible student for whom a 1 American Opportunity Tax Credit under subsection (a)(1) is allowed for the taxable year shall not be taken into account under this subsection.
+(B) Expenses eligible for Lifetime Learning Credit
+For purposes of paragraph (1), qualified tuition and related expenses shall include expenses described in subsection (f)(1) with respect to any course of instruction at an eligible educational institution to acquire or improve job skills of the individual.
+(d) Limitations based on modified adjusted gross income
+(1) American Opportunity Tax Credit
+The American Opportunity Tax Credit (determined without regard to this paragraph) shall be reduced (but not below zero) by the amount which bears the same ratio to such credit (as so determined) as—
+(A) the excess of—
+(i) the taxpayer's modified adjusted gross income for such taxable year, over
+(ii) $80,000 ($160,000 in the case of a joint return), bears to
+(B) $10,000 ($20,000 in the case of a joint return).
+(2) Lifetime Learning Credit
+The Lifetime Learning Credit (determined without regard to this paragraph) shall be reduced (but not below zero) by the amount which bears the same ratio to such credit (as so determined) as—
+(A) the excess of—
+(i) the taxpayer's modified adjusted gross income for such taxable year, over
+(ii) $40,000 ($80,000 in the case of a joint return), bears to
+(B) $10,000 ($20,000 in the case of a joint return).
+(3) Modified adjusted gross income
+For purposes of this subsection, the term "modified adjusted gross income" means the adjusted gross income of the taxpayer for the taxable year increased by any amount excluded from gross income under section 911, 931, or 933.
+(e) Election not to have section apply
+A taxpayer may elect not to have this section apply with respect to the qualified tuition and related expenses of an individual for any taxable year.
+(f) Definitions
+For purposes of this section—
+(1) Qualified tuition and related expenses
+(A) In general
+The term "qualified tuition and related expenses" means tuition and fees required for the enrollment or attendance of—
+(i) the taxpayer,
+(ii) the taxpayer's spouse, or
+(iii) any dependent of the taxpayer with respect to whom the taxpayer is allowed a deduction under section 151,
+at an eligible educational institution for courses of instruction of such individual at such institution.
+(B) Exception for education involving sports, etc.
+Such term does not include expenses with respect to any course or other education involving sports, games, or hobbies, unless such course or other education is part of the individual's degree program.
+(C) Exception for nonacademic fees
+Such term does not include student activity fees, athletic fees, insurance expenses, or other expenses unrelated to an individual's academic course of instruction.
+(D) Required course materials taken into account for American Opportunity Tax Credit
+For purposes of determining the American Opportunity Tax Credit, subparagraph (A) shall be applied by substituting "tuition, fees, and course materials" for "tuition and fees".
+(2) Eligible educational institution
+The term "eligible educational institution" means an institution—
+(A) which is described in section 481 of the Higher Education Act of 1965 (20 U.S.C. 1088), as in effect on the date of the enactment of this section, and
+(B) which is eligible to participate in a program under title IV of such Act.
+(g) Special rules
+(1) Identification requirement
+(A) In general
+No credit shall be allowed under subsection (a) to a taxpayer with respect to the qualified tuition and related expenses of an individual unless the taxpayer includes the name and taxpayer identification number of such individual on the return of tax for the taxable year.
+(B) Additional identification requirements with respect to American Opportunity Tax Credit
+(i) Student
+The requirements of subparagraph (A) shall not be treated as met with respect to the American Opportunity Tax Credit unless the individual's taxpayer identification number was issued on or before the due date for filing the return of tax for the taxable year.
+(ii) Taxpayer
+No American Opportunity Tax Credit shall be allowed under this section if the taxpayer identification number of the taxpayer was issued after the due date for filing the return for the taxable year.
+(iii) Institution
+No American Opportunity Tax Credit shall be allowed under this section unless the taxpayer includes the employer identification number of any institution to which qualified tuition and related expenses were paid with respect to the individual.
+(2) Adjustment for certain scholarships, etc.
+The amount of qualified tuition and related expenses otherwise taken into account under subsection (a) with respect to an individual for an academic period shall be reduced (before the application of subsections (b), (c), and (d)) by the sum of any amounts paid for the benefit of such individual which are allocable to such period as—
+(A) a qualified scholarship which is excludable from gross income under section 117,
+(B) an educational assistance allowance under chapter 30, 31, 32, 34, or 35 of title 38, United States Code, or under chapter 1606 of title 10, United States Code, and
+(C) a payment (other than a gift, bequest, devise, or inheritance within the meaning of section 102(a)) for such individual's educational expenses, or attributable to such individual's enrollment at an eligible educational institution, which is excludable from gross income under any law of the United States.
+(3) Treatment of expenses paid by dependent
+If a deduction under section 151 with respect to an individual is allowed to another taxpayer for a taxable year beginning in the calendar year in which such individual's taxable year begins—
+(A) no credit shall be allowed under subsection (a) to such individual for such individual's taxable year,
+(B) qualified tuition and related expenses paid by such individual during such individual's taxable year shall be treated for purposes of this section as paid by such other taxpayer, and
+(C) a statement described in paragraph (8) and received by such individual shall be treated as received by the taxpayer.
+(4) Treatment of certain prepayments
+If qualified tuition and related expenses are paid by the taxpayer during a taxable year for an academic period which begins during the first 3 months following such taxable year, such academic period shall be treated for purposes of this section as beginning during such taxable year.
+(5) Denial of double benefit
+No credit shall be allowed under this section for any expense for which a deduction is allowed under any other provision of this chapter.
+(6) No credit for married individuals filing separate returns
+If the taxpayer is a married individual (within the meaning of section 7703), this section shall apply only if the taxpayer and the taxpayer's spouse file a joint return for the taxable year.
+(7) Nonresident aliens
+If the taxpayer is a nonresident alien individual for any portion of the taxable year, this section shall apply only if such individual is treated as a resident alien of the United States for purposes of this chapter by reason of an election under subsection (g) or (h) of section 6013.
+(8) Payee statement requirement
+Except as otherwise provided by the Secretary, no credit shall be allowed under this section unless the taxpayer receives a statement furnished under section 6050S(d) which contains all of the information required by paragraph (2) thereof.
+(h) Inflation adjustment
+(1) In general
+In the case of a taxable year beginning after 2001, the $40,000 and $80,000 amounts in subsection (d)(2) shall each be increased by an amount equal to—
+(A) such dollar amount, multiplied by
+(B) the cost-of-living adjustment determined under section 1(f)(3) for the calendar year in which the taxable year begins, determined by substituting "calendar year 2000" for "calendar year 2016" in subparagraph (A)(ii) thereof.
+(2) Rounding
+If any amount as adjusted under paragraph (1) is not a multiple of $1,000, such amount shall be rounded to the next lowest multiple of $1,000.
+(i) Portion of American Opportunity Tax Credit made refundable
+Forty percent of so much of the credit allowed under subsection (a) as is attributable to the American Opportunity Tax Credit (determined after application of subsection (d) and without regard to this paragraph 2 and section 26(a)) shall be treated as a credit allowable under subpart C (and not allowed under subsection (a)). The preceding sentence shall not apply to any taxpayer for any taxable year if such taxpayer is a child to whom subsection (g) of section 1 applies for such taxable year.
+(j) Regulations
+The Secretary may prescribe such regulations as may be necessary or appropriate to carry out this section, including regulations providing for a recapture of the credit allowed under this section in cases where there is a refund in a subsequent taxable year of any amount which was taken into account in determining the amount of such credit.</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2256</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>[§30A. Repealed. Pub. L. 115–141, div. U, title IV, §401(d)(1)(B), Mar. 23, 2018, 132 Stat. 1206]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Section, added Pub. L. 104–188, title I, §1601(b)(1), Aug. 20, 1996, 110 Stat. 1830; amended Pub. L. 105–34, title XVI, §1601(f)(1)(A), Aug. 5, 1997, 111 Stat. 1090; Pub. L. 106–554, §1(a)(7) [title III, §311(a)(2)], Dec. 21, 2000, 114 Stat. 2763, 2763A–640; Pub. L. 113–295, div. A, title II, §221(a)(12)(C), Dec. 19, 2014, 128 Stat. 4038, related to Puerto Rico economic activity credit. Repeal was executed to this section, which is in subpart B of part IV of subchapter A of chapter 1, to reflect the probable intent of Congress, notwithstanding directory language of Pub. L. 115–141, which repealed section 30A in subpart C of part IV of subchapter A of chapter 1.
 Savings Provision
@@ -500,75 +640,153 @@
 [Pub. L. 110–343, div. C, title III, §309(b), Oct. 3, 2008, 122 Stat. 3869, provided that: "The amendments made by this section [amending section 119 of Pub. L. 109–432, set out above] shall apply to taxable years beginning after December 31, 2007."]</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1063</v>
       </c>
-      <c r="E2" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[§45M. Repealed. Pub. L. 115–141, div. U, title IV, §401(d)(2)(A), Mar. 23, 2018, 132 Stat. 1208]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Section, added Pub. L. 109–58, title XIII, §1334(a), Aug. 8, 2005, 119 Stat. 1030; amended Pub. L. 110–343, div. B, title III, §305(a)–(e), Oct. 3, 2008, 122 Stat. 3845–3847; Pub. L. 111–312, title VII, §709(a)–(d), Dec. 17, 2010, 124 Stat. 3312, 3313; Pub. L. 112–240, title IV, §409(a), (b), Jan. 2, 2013, 126 Stat. 2342, provided for an energy efficient appliance credit.
+Savings Provision
+For provisions that nothing in repeal by Pub. L. 115–141 be construed to affect treatment of certain transactions occurring, property acquired, or items of income, loss, deduction, or credit taken into account prior to Mar. 23, 2018, for purposes of determining liability for tax for periods ending after Mar. 23, 2018, see section 401(e) of Pub. L. 115–141, set out as a note under section 23 of this title.</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>133</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[§48D. Repealed. Pub. L. 115–141, div. U, title IV, §401(d)(3)(A), Mar. 23, 2018, 132 Stat. 1209]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Section, added Pub. L. 111–148, title IX, §9023(a), Mar. 23, 2010, 124 Stat. 877, provided for a qualifying therapeutic discovery project credit.
+Savings Provision
+Pub. L. 115–141, div. U, title IV, §401(d)(3)(C), Mar. 23, 2018, 132 Stat. 1209, provided that: "In the case of the repeal of section 48D(e)(1) of the Internal Revenue Code of 1986, the amendments made by this paragraph [amending sections 49, 50, and 280C of this title and repealing this section] shall not apply to expenditures made in taxable years beginning before January 1, 2011."
+For provisions that nothing in repeal by Pub. L. 115–141 be construed to affect treatment of certain transactions occurring, property acquired, or items of income, loss, deduction, or credit taken into account prior to Mar. 23, 2018, for purposes of determining liability for tax for periods ending after Mar. 23, 2018, see section 401(e) of Pub. L. 115–141, set out as a note under section 23 of this title.
+Grants for Qualified Investments in Therapeutic Discovery Projects in Lieu of Tax Credits
+Pub. L. 111–148, title IX, §9023(e), Mar. 23, 2010, 124 Stat. 881, directed the Secretary of the Treasury to award grants for 50 percent of a qualified investment in a qualifying therapeutic discovery project in 2009 or 2010 in lieu of tax credit allowed under section 48D of this title.</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>221</v>
+      </c>
+      <c r="E5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>[§139C. Repealed. Pub. L. 115–141, div. U, title IV, §401(d)(7)(C), Mar. 23, 2018, 132 Stat. 1212]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Section, added Pub. L. 111–5, div. B, title III, §3001(a)(15)(A), Feb. 17, 2009, 123 Stat. 465; amended Pub. L. 111–144, §3(b)(5)(B), Mar. 2, 2010, 124 Stat. 44, related to COBRA premium assistance.
 Savings Provision
 For provisions that nothing in repeal by Pub. L. 115–141 be construed to affect treatment of certain transactions occurring, property acquired, or items of income, loss, deduction, or credit taken into account prior to Mar. 23, 2018, for purposes of determining liability for tax for periods ending after Mar. 23, 2018, see section 401(e) of Pub. L. 115–141, set out as a note under section 23 of this title.</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D6" t="n">
         <v>103</v>
       </c>
-      <c r="E3" t="n">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="E6" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>[§936. Repealed. Pub. L. 115–141, div. U, title IV, §401(d)(1)(C), Mar. 23, 2018, 132 Stat. 1206]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Section, added Pub. L. 94–455, title X, §1051(b), Oct. 4, 1976, 90 Stat. 1643; amended Pub. L. 94–455, title XIX, §1901(b)(37)(B), Oct. 4, 1976, 90 Stat. 1803; Pub. L. 95–600, title VII, §701(u)(11)(A), (B), Nov. 6, 1978, 92 Stat. 2917; Pub. L. 97–248, title II, §201(d)(8)(B), formerly §201(c)(8)(B), §213(a), Sept. 3, 1982, 96 Stat. 420, 452, renumbered §201(d)(8)(B), Pub. L. 97–448, title III, §306(a)(1)(A)(i), Jan. 12, 1983, 96 Stat. 2400; Pub. L. 98–369, div. A, title IV, §474(r)(22), title VII, §712(g), title VIII, §801(d)(11), July 18, 1984, 98 Stat. 843, 947, 997; Pub. L. 99–499, title V, §516(b)(1)(B), Oct. 17, 1986, 100 Stat. 1770; Pub. L. 99–514, title II, §231(d)(3)(G), title VII, §701(e)(4)(I), title XII, §§1231(a)–(d), (f), 1275(a)(1), title XVIII, §1812(c)(4)(C), Oct. 22, 1986, 100 Stat. 2179, 2343, 2561–2563, 2598, 2835; Pub. L. 100–647, title I, §§1002(h)(3), 1012(h)(2)(B), (j), (n)(4), (5), title VI, §6132(a), Nov. 10, 1988, 102 Stat. 3370, 3502, 3512, 3515, 3721; Pub. L. 101–382, title II, §227(a), Aug. 20, 1990, 104 Stat. 661; Pub. L. 101–508, title XI, §11704(a)(11), Nov. 5, 1990, 104 Stat. 1388–518; Pub. L. 103–66, title XIII, §13227(a), (b), Aug. 10, 1993, 107 Stat. 489, 490; Pub. L. 104–188, title I, §§1601(a), 1704(t)(37), (80), Aug. 20, 1996, 110 Stat. 1827, 1889, 1891; Pub. L. 108–357, title IV, §402(b)(2), Oct. 22, 2004, 118 Stat. 1492; Pub. L. 110–172, §11(g)(12), Dec. 29, 2007, 121 Stat. 2490; Pub. L. 113–295, div. A, title II, §221(a)(12)(G), Dec. 19, 2014, 128 Stat. 4038; Pub. L. 115–97, title I, §14221(a), Dec. 22, 2017, 131 Stat. 2218, related to Puerto Rico and possession tax credit.
 Savings Provision
 For provisions that nothing in repeal by Pub. L. 115–141 be construed to affect treatment of certain transactions occurring, property acquired, or items of income, loss, deduction, or credit taken into account prior to Mar. 23, 2018, for purposes of determining liability for tax for periods ending after Mar. 23, 2018, see section 401(e) of Pub. L. 115–141, set out as a note under section 23 of this title.</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D7" t="n">
         <v>335</v>
       </c>
-      <c r="E4" t="n">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="E7" t="n">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[§1397E. Repealed. Pub. L. 115–97, title I, §13404(c)(1), Dec. 22, 2017, 131 Stat. 2138]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Section, added Pub. L. 105–34, title II, §226(a), Aug. 5, 1997, 111 Stat. 821; amended Pub. L. 105–206, title VI, §6004(g)(2)–(4), July 22, 1998, 112 Stat. 796; Pub. L. 106–78, title VII, §752(b)(11), Oct. 22, 1999, 113 Stat. 1169; Pub. L. 106–170, title V, §509, Dec. 17, 1999, 113 Stat. 1924; Pub. L. 107–110, title X, §1076(t), Jan. 8, 2002, 115 Stat. 2092; Pub. L. 107–147, title VI, §608(a), Mar. 9, 2002, 116 Stat. 60; Pub. L. 108–311, title III, §304(a), title IV, §406(c), Oct. 4, 2004, 118 Stat. 1179, 1189; Pub. L. 109–58, title XIII, §1303(c)(2), (3), Aug. 8, 2005, 119 Stat. 997; Pub. L. 109–432, div. A, title I, §107(a), (b)(1), Dec. 20, 2006, 120 Stat. 2938; Pub. L. 110–234, title XV, §15316(c)(2), May 22, 2008, 122 Stat. 1511; Pub. L. 110–246, §4(a), title XV, §15316(c)(2), June 18, 2008, 122 Stat. 1664, 2273; Pub. L. 110–343, div. C, title III, §313(b)(3), Oct. 3, 2008, 122 Stat. 3872; Pub. L. 111–5, div. B, title I, §1531(c)(3), Feb. 17, 2009, 123 Stat. 360; Pub. L. 114–95, title IX, §9215(uu)(3), Dec. 10, 2015, 129 Stat. 2183, related to credit to holders of qualified zone academy bonds.
+Effective Date of Repeal
+Repeal applicable to bonds issued after Dec. 31, 2017, see section 13404(d) of Pub. L. 115–97, set out as a note under former section 54 of this title.</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>227</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>[§§1400 to 1400C. Repealed. Pub. L. 115–141, div. U, title IV, §401(d)(4)(A), Mar. 23, 2018, 132 Stat. 1209]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Section 1400, added Pub. L. 105–34, title VII, §701(a), Aug. 5, 1997, 111 Stat. 863; amended Pub. L. 105–206, title VI, §6008(a), July 22, 1998, 112 Stat. 811; Pub. L. 106–554, §1(a)(7) [title I, §§113(c), 116(b)(5), 164(a)(1)], Dec. 21, 2000, 114 Stat. 2763, 2763A–601, 2763A–603, 2763A–625; Pub. L. 108–311, title III, §310(a), Oct. 4, 2004, 118 Stat. 1180; Pub. L. 109–432, div. A, title I, §110(a)(1), Dec. 20, 2006, 120 Stat. 2939; Pub. L. 110–343, div. C, title III, §322(a)(1), Oct. 3, 2008, 122 Stat. 3873; Pub. L. 111–312, title VII, §754(a), Dec. 17, 2010, 124 Stat. 3321, related to establishment of DC Zone.
 Section 1400A, added Pub. L. 105–34, title VII, §701(a), Aug. 5, 1997, 111 Stat. 864; amended Pub. L. 105–206, title VI, §6008(b), July 22, 1998, 112 Stat. 811; Pub. L. 106–554, §1(a)(7) [title I, §164(a)(2)], Dec. 21, 2000, 114 Stat. 2763, 2763A–625; Pub. L. 108–311, title III, §310(b), Oct. 4, 2004, 118 Stat. 1180; Pub. L. 109–432, div. A, title I, §110(b)(1), Dec. 20, 2006, 120 Stat. 2939; Pub. L. 110–343, div. C, title III, §322(b)(1), Oct. 3, 2008, 122 Stat. 3873; Pub. L. 111–312, title VII, §754(b), Dec. 17, 2010, 124 Stat. 3321, related to tax-exempt economic development bonds.
@@ -582,25 +800,25 @@
 For provisions that nothing in repeal by Pub. L. 115–141 be construed to affect treatment of certain transactions occurring, property acquired, or items of income, loss, deduction, or credit taken into account prior to Mar. 23, 2018, for purposes of determining liability for tax for periods ending after Mar. 23, 2018, see section 401(e) of Pub. L. 115–141, set out as a note under section 23 of this title.</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D9" t="n">
         <v>761</v>
       </c>
-      <c r="E5" t="n">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="E9" t="n">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>[§§1400E to 1400J. Repealed. Pub. L. 115–141, div. U, title IV, §401(d)(5)(A), Mar. 23, 2018, 132 Stat. 1210]</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Section 1400E, added Pub. L. 106–554, §1(a)(7) [title I, §101(a)], Dec. 21, 2000, 114 Stat. 2763, 2763A–589; amended Pub. L. 108–357, title II, §222(a), Oct. 22, 2004, 118 Stat. 1431; Pub. L. 109–135, title IV, §412(rr)(1), Dec. 21, 2005, 119 Stat. 2640, related to designation of renewal communities.
 Section 1400F, added Pub. L. 106–554, §1(a)(7) [title I, §101(a)], Dec. 21, 2000, 114 Stat. 2763, 2763A–594; amended Pub. L. 108–311, title III, §310(c)(2)(C), Oct. 4, 2004, 118 Stat. 1180; Pub. L. 109–432, div. A, title I, §110(c)(2)(C), Dec. 20, 2006, 120 Stat. 2940; Pub. L. 110–343, div. C, title III, §322(c)(2)(C), Oct. 3, 2008, 122 Stat. 3874, related to renewal community capital gain.
@@ -617,25 +835,25 @@
 For provisions that nothing in repeal by Pub. L. 115–141 be construed to affect treatment of certain transactions occurring, property acquired, or items of income, loss, deduction, or credit taken into account prior to Mar. 23, 2018, for purposes of determining liability for tax for periods ending after Mar. 23, 2018, see section 401(e) of Pub. L. 115–141, set out as a note under section 23 of this title.</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D10" t="n">
         <v>436</v>
       </c>
-      <c r="E6" t="n">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="E10" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>[§§1400L to 1400U–3. Repealed. Pub. L. 115–141, div. U, title IV, §401(d)(6)(A), Mar. 23, 2018, 132 Stat. 1211]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Section 1400L, added Pub. L. 107–147, title III, §301(a), Mar. 9, 2002, 116 Stat. 33; amended Pub. L. 108–27, title II, §201(c)(2), May 28, 2003, 117 Stat. 757; Pub. L. 108–311, title III, §309(a)–(c), title IV, §403(c), Oct. 4, 2004, 118 Stat. 1179, 1180, 1187; Pub. L. 109–135, title IV, §§405(a)(2), 412(ss), Dec. 21, 2005, 119 Stat. 2634, 2640; Pub. L. 110–185, title I, §103(c)(8), Feb. 13, 2008, 122 Stat. 619; Pub. L. 111–240, title II, §2022(b)(6), Sept. 27, 2010, 124 Stat. 2558; Pub. L. 111–312, title IV, §401(d)(6), title VII, §761(a), Dec. 17, 2010, 124 Stat. 3306, 3323; Pub. L. 112–240, title III, §§328(a), 331(e)(4), Jan. 2, 2013, 126 Stat. 2334, 2337; Pub. L. 113–295, div. A, title I, §125(d)(4), Dec. 19, 2014, 128 Stat. 4017, related to tax benefits for New York Liberty Zone.
 Section 1400M, added Pub. L. 109–135, title I, §101(a), Dec. 21, 2005, 119 Stat. 2578, related to definitions for part relating to tax benefits for GO Zones.
@@ -675,82 +893,106 @@
 For provisions that nothing in repeal by Pub. L. 115–141 be construed to affect treatment of certain transactions occurring, property acquired, or items of income, loss, deduction, or credit taken into account prior to Mar. 23, 2018, for purposes of determining liability for tax for periods ending after Mar. 23, 2018, see section 401(e) of Pub. L. 115–141, set out as a note under section 23 of this title.</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D11" t="n">
         <v>1218</v>
       </c>
-      <c r="E7" t="n">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[§4980A. Repealed. Pub. L. 105–34, title X, §1073(a), Aug. 5, 1997, 111 Stat. 948]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Section, added Pub. L. 99–514, title XI, §1133(a), Oct. 22, 1986, 100 Stat. 2481, §4981A; renumbered §4980A and amended Pub. L. 100–647, title I, §1011A(g)(1)(A), (2)–(6), (9), Nov. 10, 1988, 102 Stat. 3479–3482; Pub. L. 102–318, title V, §521(b)(42), July 3, 1992, 106 Stat. 313; Pub. L. 104–188, title I, §§1401(b)(12), 1452(b), Aug. 20, 1996, 110 Stat. 1789, 1816, related to tax on excess distributions from qualified retirement plans.
+      <c r="E11" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[§1551. Repealed. Pub. L. 115–97, title I, §13001(b)(5)(A), Dec. 22, 2017, 131 Stat. 2098]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Section, act Aug. 16, 1954, ch. 736, 68A Stat. 371; Pub. L. 85–866, title II, §205(a), Sept. 2, 1958, 72 Stat. 1680; Pub. L. 88–272, title II, §235(b), Feb. 26, 1964, 78 Stat. 125; Pub. L. 94–12, title III, §304(b), Mar. 29, 1975, 89 Stat. 45; Pub. L. 94–455, title XIX, §§1901(a)(158), 1906(b)(13)(A), Oct. 4, 1976, 90 Stat. 1790, 1834; Pub. L. 95–600, title III, §301(b)(18)(A), (B), Nov. 6, 1978, 92 Stat. 2823; Pub. L. 97–34, title II, §232(b)(2), Aug. 13, 1981, 95 Stat. 250; Pub. L. 99–514, title XVIII, §1899A(36), Oct. 22, 1986, 100 Stat. 2960; Pub. L. 113–295, div. A, title II, §221(a)(94), Dec. 19, 2014, 128 Stat. 4051, related to disallowance of the benefits of the graduated corporate rates and accumulated earnings credit. Repeal was executed to this section, which is in part I of subchapter B of chapter 6, to reflect the probable intent of Congress, notwithstanding directory language of Pub. L. 115–97, which repealed section 1551 in part I of subchapter B of chapter 5.
 Effective Date of Repeal
-Pub. L. 105–34, title X, §1073(c), Aug. 5, 1997, 111 Stat. 948, provided that:
-"(1) Excess distribution tax repeal.—Except as provided in paragraph (2), the repeal made by subsection (a) [repealing this section] shall apply to excess distributions received after December 31, 1996.
-"(2) Excess retirement accumulation tax repeal.—The repeal made by subsection (a) with respect to section 4980A(d) of the Internal Revenue Code of 1986 and the amendments made by subsection (b) [amending sections 691, 2013, 2053, and 6018 of this title] shall apply to estates of decedents dying after December 31, 1996."</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>167</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[§§5521 to 5523. Repealed. Pub. L. 96–39, title VIII, §807(a)(50), July 26, 1979, 93 Stat. 288]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Section 5521, added Pub. L. 85–859, title II, §201, Sept. 2, 1958, 72 Stat. 1392; amended Pub. L. 94–455, title XIX, §1906(b)(13)(A), Oct. 4, 1976, 90 Stat. 1834, related to establishment and operation of manufacturing bonded warehouses.
-A prior section 5521, act Aug. 16, 1954, ch. 736, 68A Stat. 678, related to establishment and operation of manufacturing bonded warehouses, prior to the general revision of this chapter by Pub. L. 85–859.
-Section 5522, added Pub. L. 85–859, title II, §201, Sept. 2, 1958, 72 Stat. 1393; amended Pub. L. 94–455, title XIX, §1906(b)(13)(A), Oct. 4, 1976, 90 Stat. 1834, related to withdrawal of distilled spirits to manufacturing bonded warehouses.
-A prior section 5522, act Aug. 16, 1954, ch. 736, 68A Stat. 679, related to withdrawal of distilled spirits to manufacturing bonded warehouses, prior to general revision of this chapter by Pub. L. 85–859. See sections 5008(f)(2) and 5214(a) of this title.
-Section 5523, added Pub. L. 85–859, title II, §201, Sept. 2, 1958, 72 Stat. 1394; amended Pub. L. 94–455, title XIX, §1906(b)(13)(A), Oct. 4, 1976, 90 Stat. 1834, made special provision for distilled spirits and wines rectified in manufacturing bonded warehouses.
-A prior section 5523, act Aug. 16, 1954, ch. 736, 68A Stat. 679, made special provision for distilled spirits and wines rectified in manufacturing bonded warehouses, prior to general revision of this chapter by Pub. L. 85–859.
+Repeal applicable to taxable years beginning after Dec. 31, 2017, see section 13001(c)(1) of Pub. L. 115–97, set out as an Effective Date of 2017 Amendment note under section 11 of this title.</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>207</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4.Part</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PART IV—DEFINITIONS AND SPECIAL RULES</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sec.
+6241.
+Definitions and special rules.
+Prior Provisions
+A prior subchapter D, Treatment of Electing Large Partnerships, consisted of sections 6240 to 6255, prior to repeal by Pub. L. 114–74, title XI, §1101(b)(2), (g), Nov. 2, 2015, 129 Stat. 625, 638, applicable to returns filed for partnership taxable years beginning after Dec. 31, 2017.
+Section 6240, added Pub. L. 105–34, title XII, §1222(a), Aug. 5, 1997, 111 Stat. 1009, related to application of subchapter D to electing large partnerships and partners in such partnerships.
+Another prior subchapter D, Tax Treatment of Subchapter S Items, consisted of sections 6241 to 6245, prior to repeal by Pub. L. 104–188, title I, §1307(c)(1), Aug. 20, 1996, 110 Stat. 1781.
+Amendments
+2018—Pub. L. 115–141, div. U, title II, §206(p)(12), Mar. 23, 2018, 132 Stat. 1183, amended part heading generally, substituting "PART IV—DEFINITIONS AND SPECIAL RULES" for "PART 2—DEFINITIONS AND SPECIAL RULES".</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>147</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[§6431. Repealed. Pub. L. 115–97, title I, §13404(b), Dec. 22, 2017, 131 Stat. 2138]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Section, added Pub. L. 111–5, div. B, title I, §1531(b), Feb. 17, 2009, 123 Stat. 359; amended Pub. L. 111–147, title III, §301(a), Mar. 18, 2010, 124 Stat. 77; Pub. L. 111–312, title VII, §758(b), Dec. 17, 2010, 124 Stat. 3323; Pub. L. 113–295, div. A, title II, §202(d), Dec. 19, 2014, 128 Stat. 4024, related to credit for qualified bonds allowed to issuer.
 Effective Date of Repeal
-Repeal effective Jan. 1, 1980, see section 810 of Pub. L. 96–39, set out as an Effective Date of 1979 Amendment note under section 5001 of this title.</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>261</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+Repeal by Pub. L. 115–97 applicable to bonds issued after Dec. 31, 2017, see section 13404(d) of Pub. L. 115–97, set out as a note under former section 54 of this title.</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>[§6432. Repealed. Pub. L. 115–141, div. U, title IV, §401(d)(7)(A), Mar. 23, 2018, 132 Stat. 1212]</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Section, added Pub. L. 111–5, div. B, title III, §3001(a)(12)(A), Feb. 17, 2009, 123 Stat. 461; amended Pub. L. 111–144, §3(b)(5)(C), Mar. 2, 2010, 124 Stat. 45, related to COBRA premium assistance.
 Savings Provision
@@ -759,152 +1001,157 @@
 Pub. L. 111–5, div. B, title III, §3001, Feb. 17, 2009, 123 Stat. 455, as amended by Pub. L. 111–118, div. B, §1010(a)–(d), Dec. 19, 2009, 123 Stat. 3472, 3473; Pub. L. 111–144, §3(a), (b)(1)–(4), Mar. 2, 2010, 124 Stat. 43, 44; Pub. L. 111–157, §3(a), (b), Apr. 15, 2010, 124 Stat. 1117; Pub. L. 113–295, div. A, title II, §209(j)(3), Dec. 19, 2014, 128 Stat. 4031, related to premium assistance for COBRA continuation coverage.</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D15" t="n">
         <v>183</v>
       </c>
-      <c r="E10" t="n">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[§6698A. Repealed. Pub. L. 96–223, title IV, §401(a), Apr. 2, 1980, 94 Stat. 299]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Section, added Pub. L. 94–455, title XX, §2005(d)(2), Oct. 4, 1976, 90 Stat. 1878, §6694; renumbered §6698 and amended Pub. L. 95–600, title VII, §702(r)(1)(A), (B), Nov. 6, 1978, 92 Stat. 2938; renumbered §6698A, Pub. L. 96–222, title I, §107(a)(2)(D), Apr. 1, 1980, 94 Stat. 223, related to failure of an executor to file information with respect to carryover basis property. Repeal was achieved by repealing section 2005(d)(2) of Pub. L. 94–455 and section 702(r)(1)(A), (B) of Pub. L. 95–600 and the amendments made by those sections.
-Effective Date of Repeal and Revival of Prior Law
-Repeal applicable in respect of decedents dying after Dec. 31, 1976, and, except for certain elections, this title to be applied and administered as if this section had not been enacted, see section 401(b), (e) of Pub. L. 96–223, set out as an Effective Date of 1980 Amendment and Revival of Prior Law note under section 1023 of this title.</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>156</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="E15" t="n">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>§6664. Definitions and special rules</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>(a) Underpayment
+For purposes of this part, the term "underpayment" means the amount by which any tax imposed by this title exceeds the excess of—
+(1) the sum of—
+(A) the amount shown as the tax by the taxpayer on his return, plus
+(B) amounts not so shown previously assessed (or collected without assessment), over
+(2) the amount of rebates made.
+For purposes of paragraph (2), the term "rebate" means so much of an abatement, credit, refund, or other repayment, as was made on the ground that the tax imposed was less than the excess of the amount specified in paragraph (1) over the rebates previously made. A rule similar to the rule of section 6211(b)(4) shall apply for purposes of this subsection.
+(b) Penalties applicable only where return filed
+The penalties provided in this part shall apply only in cases where a return of tax is filed (other than a return prepared by the Secretary under the authority of section 6020(b)).
+(c) Reasonable cause exception for underpayments
+(1) In general
+No penalty shall be imposed under section 6662 or 6663 with respect to any portion of an underpayment if it is shown that there was a reasonable cause for such portion and that the taxpayer acted in good faith with respect to such portion.
+(2) Exception
+Paragraph (1) shall not apply to any portion of an underpayment which is attributable to one or more transactions described in section 6662(b)(6).
+(3) Special rule for certain valuation overstatements
+In the case of any underpayment attributable to a substantial or gross valuation overstatement under chapter 1 with respect to charitable deduction property, paragraph (1) shall not apply. The preceding sentence shall not apply to a substantial valuation overstatement under chapter 1 if—
+(A) the claimed value of the property was based on a qualified appraisal made by a qualified appraiser, and
+(B) in addition to obtaining such appraisal, the taxpayer made a good faith investigation of the value of the contributed property.
+(4) Definitions
+For purposes of this subsection—
+(A) Charitable deduction property
+The term "charitable deduction property" means any property contributed by the taxpayer in a contribution for which a deduction was claimed under section 170. For purposes of paragraph (3), such term shall not include any securities for which (as of the date of the contribution) market quotations are readily available on an established securities market.
+(B) Qualified appraisal
+The term "qualified appraisal" has the meaning given such term by section 170(f)(11)(E)(i).
+(C) Qualified appraiser
+The term "qualified appraiser" has the meaning given such term by section 170(f)(11)(E)(ii).
+(d) Reasonable cause exception for reportable transaction understatements
+(1) In general
+No penalty shall be imposed under section 6662A with respect to any portion of a reportable transaction understatement if it is shown that there was a reasonable cause for such portion and that the taxpayer acted in good faith with respect to such portion.
+(2) Exception
+Paragraph (1) shall not apply to any portion of a reportable transaction understatement which is attributable to one or more transactions described in section 6662(b)(6).
+(3) Special rules
+Paragraph (1) shall not apply to any reportable transaction understatement unless—
+(A) the relevant facts affecting the tax treatment of the item are adequately disclosed in accordance with the regulations prescribed under section 6011,
+(B) there is or was substantial authority for such treatment, and
+(C) the taxpayer reasonably believed that such treatment was more likely than not the proper treatment.
+A taxpayer failing to adequately disclose in accordance with section 6011 shall be treated as meeting the requirements of subparagraph (A) if the penalty for such failure was rescinded under section 6707A(d).
+(4) Rules relating to reasonable belief
+For purposes of paragraph (3)(C)—
+(A) In general
+A taxpayer shall be treated as having a reasonable belief with respect to the tax treatment of an item only if such belief—
+(i) is based on the facts and law that exist at the time the return of tax which includes such tax treatment is filed, and
+(ii) relates solely to the taxpayer's chances of success on the merits of such treatment and does not take into account the possibility that a return will not be audited, such treatment will not be raised on audit, or such treatment will be resolved through settlement if it is raised.
+(B) Certain opinions may not be relied upon
+(i) In general
+An opinion of a tax advisor may not be relied upon to establish the reasonable belief of a taxpayer if—
+(I) the tax advisor is described in clause (ii), or
+(II) the opinion is described in clause (iii).
+(ii) Disqualified tax advisors
+A tax advisor is described in this clause if the tax advisor—
+(I) is a material advisor (within the meaning of section 6111(b)(1)) and participates in the organization, management, promotion, or sale of the transaction or is related (within the meaning of section 267(b) or 707(b)(1)) to any person who so participates,
+(II) is compensated directly or indirectly by a material advisor with respect to the transaction,
+(III) has a fee arrangement with respect to the transaction which is contingent on all or part of the intended tax benefits from the transaction being sustained, or
+(IV) as determined under regulations prescribed by the Secretary, has a disqualifying financial interest with respect to the transaction.
+(iii) Disqualified opinions
+For purposes of clause (i), an opinion is disqualified if the opinion—
+(I) is based on unreasonable factual or legal assumptions (including assumptions as to future events),
+(II) unreasonably relies on representations, statements, findings, or agreements of the taxpayer or any other person,
+(III) does not identify and consider all relevant facts, or
+(IV) fails to meet any other requirement as the Secretary may prescribe.</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>953</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>[§6720C. Repealed. Pub. L. 115–141, div. U, title IV, §401(d)(7)(B), Mar. 23, 2018, 132 Stat. 1212]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Section, added Pub. L. 111–5, div. B, title III, §3001(a)(13)(A), Feb. 17, 2009, 123 Stat. 464; amended Pub. L. 111–144, §3(b)(5)(D), Mar. 2, 2010, 124 Stat. 45, related to penalty for failure to notify health plan of cessation of eligibility for COBRA premium assistance.
 Savings Provision
 For provisions that nothing in repeal by Pub. L. 115–141 be construed to affect treatment of certain transactions occurring, property acquired, or items of income, loss, deduction, or credit taken into account prior to Mar. 23, 2018, for purposes of determining liability for tax for periods ending after Mar. 23, 2018, see section 401(e) of Pub. L. 115–141, set out as a note under section 23 of this title.</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D17" t="n">
         <v>115</v>
       </c>
-      <c r="E12" t="n">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[§7240. Repealed. Pub. L. 101–508, title XI, §11801(c)(22)(D)(i), Nov. 5, 1990, 104 Stat. 1388–528]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Section, acts Aug. 16, 1954, ch. 736, 68A Stat. 861; Oct. 4, 1976, Pub. L. 94–455, title XIX, §1904(b)(6)(A), 90 Stat. 1815, set forth penalties for persons who invested or speculated in sugar while acting in any official capacity in the administration of former chapter 37 of this title.
-Savings Provision
-For provisions that nothing in repeal by Pub. L. 101–508 be construed to affect treatment of certain transactions occurring, property acquired, or items of income, loss, deduction, or credit taken into account prior to Nov. 5, 1990, for purposes of determining liability for tax for periods ending after Nov. 5, 1990, see section 11821(b) of Pub. L. 101–508, set out as a note under section 45K of this title.</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>120</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="E17" t="n">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>[§7326. Repealed. Pub. L. 115–141, div. U, title IV, §401(b)(50), Mar. 23, 2018, 132 Stat. 1205]</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Section, act Aug. 16, 1954, ch. 736, 68A Stat. 871; Pub. L. 85–859, title II, §204(13), Sept. 2, 1958, 72 Stat. 1429; Pub. L. 89–44, title VI, §601(j), June 21, 1965, 79 Stat. 155; Pub. L. 91–513, title III, §1102(f), Oct. 27, 1970, 84 Stat. 1292; Pub. L. 94–455, title XIX, §§1906(a)(43), (b)(13)(A), Oct. 4, 1976, 90 Stat. 1830, 1834, related to disposal of certain forfeited property.
 Savings Provision
 For provisions that nothing in repeal by Pub. L. 115–141 be construed to affect treatment of certain transactions occurring, property acquired, or items of income, loss, deduction, or credit taken into account prior to Mar. 23, 2018, for purposes of determining liability for tax for periods ending after Mar. 23, 2018, see section 401(e) of Pub. L. 115–141, set out as a note under section 23 of this title.</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D18" t="n">
         <v>138</v>
       </c>
-      <c r="E14" t="n">
-        <v>2356</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[§7443B. Repealed. Pub. L. 110–458, title I, §108(l), Dec. 23, 2008, 122 Stat. 5110]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Section, added Pub. L. 109–280, title VIII, §856(a), Aug. 17, 2006, 120 Stat. 1019, related to the recall of retired special trial judges of the Tax Court.
-Effective Date of Repeal
-Repeal effective as if included in the provisions of Pub. L. 109–280 to which the repeal relates, except as otherwise provided, see section 112 of Pub. L. 110–458, set out as an Effective Date of 2008 Amendment note under section 72 of this title.
-Construction of Amendment by Pub. L. 109–280
-Pub. L. 110–458, title I, §108(l), Dec. 23, 2008, 122 Stat. 5110, provided that: "Section 856 of the 2006 Act [Pub. L. 109–280, enacting this section], and the amendments made by such section, are hereby repealed, and the Internal Revenue Code of 1986 shall be applied and administered as if such sections and amendments had not been enacted."</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>140</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="E18" t="n">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>4.Part</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>PART II—PROCEDURE</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Sec.
 7451.
@@ -950,25 +1197,25 @@
 1 Section catchline amended by Pub. L. 91–172 without corresponding amendment of analysis.</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>239</v>
       </c>
-      <c r="E16" t="n">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="E19" t="n">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>[§9013. Repealed. Pub. L. 115–141, div. U, title IV, §401(d)(8), Mar. 23, 2018, 132 Stat. 1212]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Section, added Pub. L. 92–178, title VIII, §801, Dec. 10, 1971, 85 Stat. 572, provided that this chapter would take effect on Jan. 1, 1973.
 A prior section 9021, added by Pub. L. 92–178, title VIII, §801, Dec. 10, 1971, 85 Stat. 572, established Presidential Election Campaign Fund Advisory Board, prior to repeal by Pub. L. 93–443, title IV, §408(c), Oct. 15, 1974, 88 Stat. 1297. For effective date of repeal see section 410(c)(1) of Pub. L. 93–443, set out as an Effective Date of 1974 Amendment note under section 30101 of Title 52, Voting and Elections.
@@ -976,11 +1223,11 @@
 For provisions that nothing in repeal by Pub. L. 115–141 be construed to affect treatment of certain transactions occurring, property acquired, or items of income, loss, deduction, or credit taken into account prior to Mar. 23, 2018, for purposes of determining liability for tax for periods ending after Mar. 23, 2018, see section 401(e) of Pub. L. 115–141, set out as a note under section 23 of this title.</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>168</v>
       </c>
-      <c r="E17" t="n">
-        <v>2560</v>
+      <c r="E20" t="n">
+        <v>2511</v>
       </c>
     </row>
   </sheetData>
